--- a/experiment/linear/ex9_1_10/compare/M-Estacionario/ex9_1_10_M-Estacionario.xlsx
+++ b/experiment/linear/ex9_1_10/compare/M-Estacionario/ex9_1_10_M-Estacionario.xlsx
@@ -494,13 +494,13 @@
         <v>255.11682997118092</v>
       </c>
       <c r="E2">
-        <v>0.00028215</v>
+        <v>0.00027738</v>
       </c>
       <c r="F2">
-        <v>0.01986075</v>
+        <v>0.01492443</v>
       </c>
       <c r="G2">
-        <v>0.0005322768591151552</v>
+        <v>0.0005435682127240926</v>
       </c>
       <c r="H2">
         <v>1780</v>
@@ -535,13 +535,13 @@
         <v>-4.406220262115e11</v>
       </c>
       <c r="E3">
-        <v>0.49155003</v>
+        <v>0.57983175</v>
       </c>
       <c r="F3">
-        <v>0.56517579</v>
+        <v>0.59989392</v>
       </c>
       <c r="G3">
-        <v>0.506959065</v>
+        <v>0.58973956</v>
       </c>
       <c r="H3">
         <v>240512</v>

--- a/experiment/linear/ex9_1_10/compare/M-Estacionario/ex9_1_10_M-Estacionario.xlsx
+++ b/experiment/linear/ex9_1_10/compare/M-Estacionario/ex9_1_10_M-Estacionario.xlsx
@@ -494,13 +494,13 @@
         <v>255.11682997118092</v>
       </c>
       <c r="E2">
-        <v>0.00027738</v>
+        <v>0.0003937</v>
       </c>
       <c r="F2">
-        <v>0.01492443</v>
+        <v>0.01766242</v>
       </c>
       <c r="G2">
-        <v>0.0005435682127240926</v>
+        <v>0.0007100866538461538</v>
       </c>
       <c r="H2">
         <v>1780</v>
@@ -535,13 +535,13 @@
         <v>-4.406220262115e11</v>
       </c>
       <c r="E3">
-        <v>0.57983175</v>
+        <v>0.650059925</v>
       </c>
       <c r="F3">
-        <v>0.59989392</v>
+        <v>0.67256134</v>
       </c>
       <c r="G3">
-        <v>0.58973956</v>
+        <v>0.659487631</v>
       </c>
       <c r="H3">
         <v>240512</v>
